--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,18 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,75 +421,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="27.7109375" customWidth="1" style="5" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="27.7109375" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Money</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Against_odds</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Jokey</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Win_Lost</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.2881944444444444</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gosford</t>
+          <t>Murwillumbah</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,27 +500,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5422</v>
+        <v>9748</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Bold Contender
+M Mcguren</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.2881944444444444</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Turda</t>
+          <t>Murwillumbah</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,27 +532,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5422</v>
+        <v>9748</v>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Bold Contender
+M Mcguren</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.2881944444444444</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dej</t>
+          <t>Murwillumbah</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -561,27 +564,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5422</v>
+        <v>9748</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Bold Contender
+M Mcguren</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aghires</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,27 +596,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juc</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,27 +628,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Apahida</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,27 +660,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Teius</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -677,27 +692,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gherla</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -706,27 +724,30 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44461</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.2673611111111111</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moci</t>
+          <t>Echuca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -735,14 +756,271 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5422</v>
+        <v>13314</v>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hoover</t>
+          <t>Tibetan
+H Coffey</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Echuca</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13314</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tibetan
+H Coffey</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 Oct</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Echuca</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13314</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tibetan
+H Coffey</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.2604166666666667</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Queanbeyan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>18905</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Accrue
+Michael Heagney</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kyneton</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5028</v>
+      </c>
+      <c r="F14" t="n">
+        <v>120</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ask Isla
+Christine Puls</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kyneton</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6988</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Daario
+Damian Lane</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0.2652777777777778</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Menangle</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>58594</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hy Voltage
+Cameron Hart</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>13448</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Willowy
+Christian Reith</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12 Oct</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5272</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Jesse James
+Brodie Loy</t>
         </is>
       </c>
     </row>

--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -421,10 +421,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -483,15 +483,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Murwillumbah</t>
+          <t>Queanbeyan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,30 +500,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9748</v>
+        <v>18905</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bold Contender
-M Mcguren</t>
+          <t>Accrue
+Michael Heagney</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Murwillumbah</t>
+          <t>Kyneton</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,30 +532,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9748</v>
+        <v>5028</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>120</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bold Contender
-M Mcguren</t>
+          <t>Ask Isla
+Christine Puls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Murwillumbah</t>
+          <t>Kyneton</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -564,30 +564,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9748</v>
+        <v>6988</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bold Contender
-M Mcguren</t>
+          <t>Daario
+Damian Lane</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2652777777777778</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Menangle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,30 +596,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13314</v>
+        <v>58594</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Hy Voltage
+Cameron Hart</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2743055555555556</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -628,30 +628,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13314</v>
+        <v>13448</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Willowy
+Christian Reith</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -660,30 +660,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13314</v>
+        <v>5272</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Jesse James
+Brodie Loy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Queanbeyan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,30 +692,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13314</v>
+        <v>66020</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Milamoo
+Amy Mc Lucas</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Kyneton</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -724,30 +724,30 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13314</v>
+        <v>7467</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Big Angel
+Damian Lane</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.29375</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Menangle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -756,30 +756,30 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13314</v>
+        <v>63647</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>1.14</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Anntonia
+L A Mccarthy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3034722222222222</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Redcliffe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -788,30 +788,30 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13314</v>
+        <v>11477</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Teddy Disco
+N M Dawson</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11 Oct</t>
+          <t>12 Oct</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Echuca</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -820,30 +820,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13314</v>
+        <v>7845</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tibetan
-H Coffey</t>
+          <t>Norwegian Bliss
+A Morgan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>14 Oct</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Queanbeyan</t>
+          <t>Warrnambool</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -852,30 +852,30 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18905</v>
+        <v>774954</v>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accrue
-Michael Heagney</t>
+          <t>Power Of Song
+Dean Yendall</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>14 Oct</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2652777777777778</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kyneton</t>
+          <t>Marburg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,30 +884,30 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5028</v>
+        <v>15261</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>1.34</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ask Isla
-Christine Puls</t>
+          <t>Misty Creek
+J A Weidemann</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>15 Oct</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kyneton</t>
+          <t>Taree</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -916,30 +916,30 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6988</v>
+        <v>69448</v>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Daario
-Damian Lane</t>
+          <t>Wiki
+Aaron Bullock</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>16 Oct</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.2652777777777778</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Menangle</t>
+          <t>Caulfield</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,30 +948,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>58594</v>
+        <v>5745</v>
       </c>
       <c r="F16" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hy Voltage
-Cameron Hart</t>
+          <t>Extreme Flight
+Damien Thornton</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>15 Oct</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Moe</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -980,47 +980,1103 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13448</v>
+        <v>14331</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Willowy
-Christian Reith</t>
+          <t>Sacra
+Lewis German</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12 Oct</t>
+          <t>15 Oct</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
+        <v>0.2201388888888889</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Charles Town</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Janiessweetmelissa
+Arnaldo Bocachica</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0.2354166666666667</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bathurst</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>142012</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Movin Denman
+Grant Buckley</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0.2402777777777778</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>17939</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kercharmer
+R Fradd</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0.2430555555555556</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Murray Bridge</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8278</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cassowary
+Anna Jordsjo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Taree</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>26988</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Miss Milton
+Ben Looker</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16 Oct</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Caulfield</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>18365</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Kapalua Sunset
+Brett Prebble</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Moe</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8136</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Firstclass Dreamer
+Brian Higgins</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0.2465277777777778</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Remington Park</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>15944</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Shifty Henry
+Stewart Elliott</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0.2520833333333333</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Albion Park</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>30655</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Carnera
+G W Dixon</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0.2597222222222222</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bathurst</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5147</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Makuba
+Zara Lewis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Te Aroha</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>23145</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ceasar
+Danielle Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wagga</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>8903</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>The Stain
+A M Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Taree</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12458</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>West Germany
+Dylan Gibbons</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Moe</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>148363</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hes The Real Deel
+Brian Higgins</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0.2840277777777778</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bathurst</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6554</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Shaddy
+Matthew Cahill</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5581</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lyrical Girl
+Ryan Maloney</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Murray Bridge</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6905</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Sky Hero
+Ms C Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16 Oct</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
         <v>0.2986111111111111</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5272</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Jesse James
-Brodie Loy</t>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Caulfield</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15336</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Buffalo River
+Jye Mcneil</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0.2854166666666667</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Remington Park</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5010</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Klaytons Kandy
+Stewart Elliott</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Taree</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5007</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Austeja
+Jackson Searle</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Moe</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>45661</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Samarkand
+Damian Lane</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0.3006944444444444</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Albion Park</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6870</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Call Me Diva
+N J Mcmullen</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15 Oct</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0.3083333333333333</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bathurst</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5201</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ang Pow
+Grant Buckley</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0.2430555555555556</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Naracoorte</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>70792</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Run And Tell
+Angus Chung</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Randwick</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>90652</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Verbek
+Tommy Berry</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>24565</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Unanimous
+J Allen</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>12260</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Thatfeelsbetter
+Baylee Nothdurft</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Naracoorte</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9064</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Skilled Bunch
+Paul Gatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Randwick</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>44507</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Conrad
+Alysha Collett</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>29420</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Crestani
+Patrick Moloney</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0.2868055555555555</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>8067</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Jewel Flight
+Ryan Maloney</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Melton</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>7551</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Taimate Sass
+C A Alford</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Naracoorte</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Another Free Glass
+Ben Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0.2770833333333333</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tauranga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>12987</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Clique
+Danielle Johnson</t>
         </is>
       </c>
     </row>

--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -421,16 +421,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.85546875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="27.7109375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="27.7109375" customWidth="1" style="1" min="7" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,10 +471,15 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
           <t>Win_Lost</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
@@ -2077,6 +2082,548 @@
         <is>
           <t>Clique
 Danielle Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Randwick</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>64141</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mightybeel
+Glyn Schofield</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>17428</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Grinzinger King
+J Allen</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5077</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Dare To Share
+Adin Thompson</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0.29375</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Melton</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>5784</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rockford Peach
+L Miles</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20 Oct</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Randwick</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>29661</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Delexo
+Jason Collett</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>0.2354166666666667</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cootamundra</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8416</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Romero
+Nick Heywood</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0.2402777777777778</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mackay</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>7355</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Unique Journey
+Montana Philpot</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0.2201388888888889</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Charles Town</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5468</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Bella Gabriella
+Wesley Ho</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Woodville</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>44997</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Miss Ricky Bobby
+Lisa Allpress</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Scone</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>7262</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Schillers Myst
+Grant Buckley</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Woodville</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>17556</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Battle Secret
+Jonathan Riddell</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189495354?nodeId=31017290.0320</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0.2645833333333333</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mackay</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>105186</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Matador
+Ryan Wiggins</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189495248?nodeId=31017285.0321</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Scone</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>30382</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tiva Bay
+Dylan Gibbons</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189490551?nodeId=31017086.0335</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>23 Oct</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Moonee Valley</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>7653</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Heresy
+Damien Oliver</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189490757?nodeId=31014544.0335</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>West Wyalong</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>13230</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Blazing Banner
+J G Painting</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189490777?nodeId=31017091.0253</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22 Oct</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Echuca</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>6307</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Inthelapofthegods
+Thomas Stockdale</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189489969?nodeId=31017053.0345</t>
         </is>
       </c>
     </row>

--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -227,13 +227,63 @@
   </si>
   <si>
     <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189856161?nodeId=31032359.0225</t>
+  </si>
+  <si>
+    <t>Twig
+Jeff Penza</t>
+  </si>
+  <si>
+    <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.189856165?nodeId=31032359.0335</t>
+  </si>
+  <si>
+    <t>5 Ian</t>
+  </si>
+  <si>
+    <t>Bordertown</t>
+  </si>
+  <si>
+    <t>Texan Windstorm
+Karl Zechner</t>
+  </si>
+  <si>
+    <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.192983291?nodeId=31156627.0420</t>
+  </si>
+  <si>
+    <t>Warwick Farm</t>
+  </si>
+  <si>
+    <t>Kaapfever
+Tyler Schiller</t>
+  </si>
+  <si>
+    <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.192983121?nodeId=31156608.0430</t>
+  </si>
+  <si>
+    <t>Sandown</t>
+  </si>
+  <si>
+    <t>Duchy Of Savoy
+Jye Mcneil</t>
+  </si>
+  <si>
+    <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.192983101?nodeId=31156607.0440</t>
+  </si>
+  <si>
+    <t>Doomben</t>
+  </si>
+  <si>
+    <t>Allora Enzo
+Baylee Nothdurft</t>
+  </si>
+  <si>
+    <t>https://www.betfair.ro/exchange/plus/horse-racing/market/1.192983270?nodeId=31156624.0447</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +295,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -278,8 +337,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1088,9 @@
       <c r="H15" t="s">
         <v>58</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1053,8 +1117,11 @@
       <c r="H16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1076,11 +1143,163 @@
       <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>234806</v>
+      </c>
+      <c r="F18">
+        <v>1.95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>205311</v>
+      </c>
+      <c r="F19">
+        <v>2.02</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>89178</v>
+      </c>
+      <c r="F20">
+        <v>5.2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>36134</v>
+      </c>
+      <c r="F21">
+        <v>1.89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>11474</v>
+      </c>
+      <c r="F22">
+        <v>2.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H18" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId4"/>
+    <hyperlink ref="H21" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
